--- a/biology/Botanique/Anchusa/Anchusa.xlsx
+++ b/biology/Botanique/Anchusa/Anchusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anchusa (les Buglosses) est un  genre de plantes herbacées de la famille des Boraginaceae. Il est originaire d'Europe, d'Afrique et d'Asie occidentale.
 Il regroupe environ 35 espèces.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anchusa arvensis (L.) Bieb. - Buglosse des champs
 Anchusa azurea Mill. - Buglosse d'Italie (syn. Anchusa italica Retz.)
@@ -554,7 +568,9 @@
           <t>Espèce déplacée du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour Anchusa sempervirens L., voir Pentaglottis sempervirens (L.) Tausch ex L.H.Bailey</t>
         </is>
@@ -586,8 +602,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Calendrier républicain
-La buglosse voyait son nom attribué au 28e jour du mois de floréal du calendrier républicain / révolutionnaire français[1], généralement chaque 17 mai du calendrier grégorien.</t>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La buglosse voyait son nom attribué au 28e jour du mois de floréal du calendrier républicain / révolutionnaire français, généralement chaque 17 mai du calendrier grégorien.</t>
         </is>
       </c>
     </row>
